--- a/00_Data/Datasets_metadata.xlsx
+++ b/00_Data/Datasets_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqfchar1_uq_edu_au/Documents/Desktop/GitHub/Fire_freq_pred_modelling/00_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72BB4C31-F3BE-4975-8146-F72EF8A5AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{72BB4C31-F3BE-4975-8146-F72EF8A5AE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{428AB144-1547-4C50-A38F-C44A7DE46131}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{CFB87D9E-A38C-4243-925E-2D890E6206AE}"/>
+    <workbookView xWindow="930" yWindow="1020" windowWidth="28800" windowHeight="15370" xr2:uid="{CFB87D9E-A38C-4243-925E-2D890E6206AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>Dataset</t>
   </si>
@@ -77,9 +77,6 @@
     <t>https://www.abs.gov.au/AUSSTATS/abs@.nsf/DetailsPage/1259.0.30.001July%202011?OpenDocument</t>
   </si>
   <si>
-    <t>Protected areas of QLD</t>
-  </si>
-  <si>
     <t>QLD Spatial</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>https://qldspatial.information.qld.gov.au/catalogue/custom/detail.page?fid={07E360E3-A191-4C24-9671-1471362F0B1B}</t>
   </si>
   <si>
-    <t xml:space="preserve">Fire history - QPWS </t>
-  </si>
-  <si>
     <t>1930-2022</t>
   </si>
   <si>
@@ -104,15 +98,9 @@
     <t>https://qldspatial.information.qld.gov.au/catalogue/custom/detail.page?fid=%7b607736AE-8F4C-4058-B97F-</t>
   </si>
   <si>
-    <t>Annual Fire Scares - Sentinel 2, QLD DES algorithm, QLD coverage</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017-2022 </t>
   </si>
   <si>
-    <t>6/04/2022 (redownloaded with 2022)</t>
-  </si>
-  <si>
     <t>TERN</t>
   </si>
   <si>
@@ -122,15 +110,9 @@
     <t>https://portal.tern.org.au/fire-scars-sentinel-queensland-coverage/22084</t>
   </si>
   <si>
-    <t>Annual Fire Scares - Landsat, QLD DES algorithm, QLD coverage</t>
-  </si>
-  <si>
     <t>1986-2016</t>
   </si>
   <si>
-    <t>6/04/2022 (redownloaded)</t>
-  </si>
-  <si>
     <t>30m</t>
   </si>
   <si>
@@ -167,9 +149,6 @@
     <t>Old Hidden Vale Nature Refuge</t>
   </si>
   <si>
-    <t>Topographic wetness index</t>
-  </si>
-  <si>
     <t>CSIRO Data Collection</t>
   </si>
   <si>
@@ -236,9 +215,6 @@
     <t>https://ecat.ga.gov.au/geonetwork/srv/eng/catalog.search#/metadata/72759</t>
   </si>
   <si>
-    <t>Clay % - Soils and Landscape Grid of Australia</t>
-  </si>
-  <si>
     <t>90m</t>
   </si>
   <si>
@@ -279,6 +255,60 @@
   </si>
   <si>
     <t>QLD Reserviors</t>
+  </si>
+  <si>
+    <t>Annual Fire Scars - Landsat, QLD DES algorithm, QLD coverage</t>
+  </si>
+  <si>
+    <t>Sentinel-2 Fire Scars – QLD DES algorithm, QLD coverage</t>
+  </si>
+  <si>
+    <t>The Modelled Value for Clay % - Soils and Landscape Grid of Australia</t>
+  </si>
+  <si>
+    <t>6/04/2022 (redownloaded but accessed directly from code)</t>
+  </si>
+  <si>
+    <t>2007-2024</t>
+  </si>
+  <si>
+    <t>2007-2022</t>
+  </si>
+  <si>
+    <t>Protected areas of Queensland</t>
+  </si>
+  <si>
+    <t>Fire history – Queensland Parks and Wildlife Service</t>
+  </si>
+  <si>
+    <t>Topographic wetness index derived from 1” SRTM DEM-H</t>
+  </si>
+  <si>
+    <t>QLD watercourse areas</t>
+  </si>
+  <si>
+    <t>Remnant 2021 Broad Vegetation groups - Queensland</t>
+  </si>
+  <si>
+    <t>2017-2024</t>
+  </si>
+  <si>
+    <t>Fire management guidelines – Regional ecosystems Queensland</t>
+  </si>
+  <si>
+    <t>Queensland Government</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://www.qld.gov.au/__data/assets/file/0025/384046/fire-management-guidelines-v13.1.csv</t>
+  </si>
+  <si>
+    <t>Biodiversity status of 2021 remnant regional ecosystems - Queensland</t>
+  </si>
+  <si>
+    <t>100m</t>
   </si>
 </sst>
 </file>
@@ -331,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -339,6 +369,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -674,15 +710,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B4C87A-1EDD-4382-8DCB-38A5028796CA}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="83.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.90625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
@@ -691,7 +727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -716,12 +752,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
+      </c>
+      <c r="C2">
+        <v>2011</v>
       </c>
       <c r="D2" s="2">
         <v>44592</v>
@@ -729,6 +768,9 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
@@ -737,106 +779,109 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
+      <c r="A3" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
       </c>
       <c r="D3" s="2">
         <v>44585</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D4" s="2">
+        <v>45156</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
-        <v>44585</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -848,21 +893,21 @@
         <v>45054</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>37</v>
+      <c r="A8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -874,21 +919,21 @@
         <v>45054</v>
       </c>
       <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>38</v>
+      <c r="A9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -900,21 +945,21 @@
         <v>45054</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>42</v>
+      <c r="A10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -926,21 +971,21 @@
         <v>45054</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>43</v>
+      <c r="A11" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -952,73 +997,73 @@
         <v>45156</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2">
         <v>45156</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>52</v>
+      <c r="A13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>69</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1030,21 +1075,21 @@
         <v>45398</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -1056,21 +1101,21 @@
         <v>45398</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1082,21 +1127,21 @@
         <v>45398</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -1105,195 +1150,302 @@
         <v>45398</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>56</v>
+      <c r="A18" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2">
         <v>45166</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>62</v>
+      <c r="A19" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2">
         <v>45217</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2021</v>
       </c>
       <c r="D20" s="2">
         <v>45394</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>74</v>
+      <c r="A21" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>2023</v>
+      <c r="C21" t="s">
+        <v>77</v>
       </c>
       <c r="D21" s="2">
         <v>45413</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>2023</v>
       </c>
       <c r="D22" s="2">
         <v>45413</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>79</v>
+      <c r="A23" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>2023</v>
+      <c r="C23" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="2">
         <v>45413</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>80</v>
+      <c r="A24" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>2023</v>
+      <c r="C24" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="2">
         <v>45413</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45413</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2">
+        <v>45665</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>2024</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45665</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45665</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
